--- a/biology/Zoologie/Graïoïde/Graïoïde.xlsx
+++ b/biology/Zoologie/Graïoïde/Graïoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gra%C3%AFo%C3%AFde</t>
+          <t>Graïoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les canidés de type graïoïde ou plus communément de type lévrier, ont comme caractéristiques anatomiques une tête dolichocéphale longue (la largeur de la tête ne dépasse pas la moitié de sa longueur, exception pour les whippets et petits lévriers italiens due à la taille)[1], un corps effilé et une poitrine particulièrement descendue, soit une morphologie spécifiquement déterminée pour la course. C'est le vétérinaire français Jean Pierre Mégnin qui a, le premier, réparti les chiens en quatre types, lupoïdes, molossoïdes, braccoïdes et graioïdes. 
+Les canidés de type graïoïde ou plus communément de type lévrier, ont comme caractéristiques anatomiques une tête dolichocéphale longue (la largeur de la tête ne dépasse pas la moitié de sa longueur, exception pour les whippets et petits lévriers italiens due à la taille), un corps effilé et une poitrine particulièrement descendue, soit une morphologie spécifiquement déterminée pour la course. C'est le vétérinaire français Jean Pierre Mégnin qui a, le premier, réparti les chiens en quatre types, lupoïdes, molossoïdes, braccoïdes et graioïdes. 
 Ce terme qualifie le type incarné par les lévriers.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gra%C3%AFo%C3%AFde</t>
+          <t>Graïoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,59 +527,220 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Groupe 10
-Section 1 - Lévriers à poil long ou frangé
-le lévrier afghan (10/1/228) ;
+          <t>Groupe 10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Section 1 - Lévriers à poil long ou frangé</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>le lévrier afghan (10/1/228) ;
 le barzoï ou lévrier russe  (10/1/193) ;
-le lévrier persan, saluki ou salouki (10/1/269).
-Section 2 - Lévriers à poil dur
-l'irish wolfhound ou lévrier irlandais (10/2/160) ;
-le deerhound ou lévrier écossais (10/2/164).
-Section 3 - Lévriers à poil court, oreilles couchées ou tombantes
-le lévrier arabe, sloughi ou lévrier du désert (10/3/188) ;
+le lévrier persan, saluki ou salouki (10/1/269).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Graïoïde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gra%C3%AFo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Races reconnus par la FCI</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Groupe 10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Section 2 - Lévriers à poil dur</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>l'irish wolfhound ou lévrier irlandais (10/2/160) ;
+le deerhound ou lévrier écossais (10/2/164).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Graïoïde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gra%C3%AFo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Races reconnus par la FCI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Groupe 10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Section 3 - Lévriers à poil court, oreilles couchées ou tombantes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>le lévrier arabe, sloughi ou lévrier du désert (10/3/188) ;
 l'azawakh (10/3/307) ;
 le lévrier galgo ou lévrier espagnol (10/3/285) ;
 le chart polski ou lévrier polonais (10/3/333) ;
 le lévrier greyhound ou lévrier anglais (10/3/158) ;
 le lévrier hongrois ou magyar agar (10/3/240) ;
 le petit lévrier italien ou levrette d'Italie (10/3/200) ;
-le lévrier whippet ou lévrier nain[2] (10/3/162).
-Groupe 5
-Section 6 - Type primitif
-le lévrier de Pharaon (5/6/248).
-Section 7 - Type primitif - Chiens de chasse
-le cirneco de l'Étna (5/7/199) ;
+le lévrier whippet ou lévrier nain (10/3/162).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Graïoïde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gra%C3%AFo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Races reconnus par la FCI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Groupe 5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Section 6 - Type primitif</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>le lévrier de Pharaon (5/6/248).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Graïoïde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gra%C3%AFo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Races reconnus par la FCI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Groupe 5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Section 7 - Type primitif - Chiens de chasse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>le cirneco de l'Étna (5/7/199) ;
 le podenco d'Ibiza, ou chien de garenne des Baléares (5/7/089);
 le podengo portugais, lévrier portugais ou chien de garenne du Portugal (5/7/094) ;
 le podenco canario ou chien de garenne des Canaries (5/7/329).</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gra%C3%AFo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Graïoïde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gra%C3%AFo%C3%AFde</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Races de lévriers reconnues localement par des standards nationaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>le lévrier Bakhmull (RKF standard russe)
 le lévrier caravan hound (KCI standard indien)
@@ -578,31 +751,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gra%C3%AFo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Graïoïde</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gra%C3%AFo%C3%AFde</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Autres races de lévriers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>le lévrier australien (Australie)
 le lévrier grec (Grèce)
@@ -612,31 +787,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gra%C3%AFo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Graïoïde</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gra%C3%AFo%C3%AFde</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sport</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Les Lévriers du groupe 10 se retrouvent dans les épreuves suivantes :
 Épreuves de courses sur cynodromes ou racing.
